--- a/public/excels/exports/paymentCustomer-export.xlsx
+++ b/public/excels/exports/paymentCustomer-export.xlsx
@@ -135,7 +135,7 @@
     <t>PQ051</t>
   </si>
   <si>
-    <t>26/02/2021 04:02:31</t>
+    <t>26/02/2021 06:02:54</t>
   </si>
   <si>
     <t>PQ001</t>
